--- a/data/codbook_variables.xlsx
+++ b/data/codbook_variables.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SergiR\Desktop\web-scraping-vademecum-master\pdf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7665" activeTab="1"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Tabla_MS" sheetId="2" r:id="rId2"/>
     <sheet name="Categorias" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>Variable</t>
   </si>
@@ -329,6 +324,12 @@
   </si>
   <si>
     <t>Diagnóstico hospitalario</t>
+  </si>
+  <si>
+    <t>Enfermedad</t>
+  </si>
+  <si>
+    <t>Enfermedad principal en la que se trata con dicho medicamento</t>
   </si>
 </sst>
 </file>
@@ -671,7 +672,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,6 +965,17 @@
       </c>
       <c r="C17" s="5" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
